--- a/biology/Histoire de la zoologie et de la botanique/Rui_Vieira/Rui_Vieira.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Rui_Vieira/Rui_Vieira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rui Vieira OIH • ComMAI, né Rui Manuel da Silva Vieira à São Martinho (Funchal), Madère, le 29 mars 1926 et mort à Funchal le 29 août 2009, est un ingénieur agronome et homme politique portugais.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Rui Vieira est né le 29 mars 1926, dans le quartier de São Martinho, dans la municipalité de Funchal.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rui Vieira est né le 29 mars 1926, dans le quartier de São Martinho, dans la municipalité de Funchal.
 En 1951, il est diplômé ingénieur agronome de l'Institut supérieur d'agronomie à l'Université technique de Lisbonne, après avoir fait un stage durant ses études de premier cycle au sein du Conseil d'administration des Exportateurs de Fruits et Légumes de l'Île de Madère, sur la « mouche de fruit », Ceratitis capitata. Ayant obtenu la note finale de 19/20, cela lui a permis de représenter son pays lors d'une conférence à Alger.
 Durant la période entre la fin de sa formation, ses stages et son premier emploi, Rui Vieira a publié plusieurs textes sur les insectes nuisibles comme la mouche de fruit (1949), la mouche blanche des agrumes (1950), les insectes nuisibles à la vigne (1951), et des études sur les fourmis blanches (1952).
 Il participe en 1952, en tant qu'ingénieur agronome de 2e classe, dans les Services Agricoles (département agraire), à l'Assemblée Générale du District Autonome de Funchal. Entre la fin de son cursus et le début de sa carrière professionnelle, il publie une partie de son travail portant sur l'entomologie, sur les fléaux touchant les agrumes, les fruits et la vigne, mais ce sera à partir de 1952, année où il publie sous forme de livre son travail de stage, qu'il mènera d'importants travaux dans les domaines de la santé des végétaux, de l'horticulture, de l'arboriculture et de la viticulture.
@@ -529,8 +543,43 @@
 Commission des budgets (janvier 1997) (suppléant).
 Il a été Président du Conseil d'administration de la section régionale du bois de l' Ordre des ingénieurs de 1998 à 2001.
 Il est mort le 29 août 2009.
-Décorations
-Officier de l'Ordre de l'Infant Dom Henri de Portugal (12 août 1964)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rui_Vieira</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rui_Vieira</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Officier de l'Ordre de l'Infant Dom Henri de Portugal (12 août 1964)
 Commandeur de l'Ordre Civil du Mérite Agricole et Industriel de la Classe Agricole de Portugal (10 juin 1991)</t>
         </is>
       </c>
